--- a/data/hotels_by_city/Houston/Houston_shard_632.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_632.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="676">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1236696-Reviews-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
   </si>
   <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-IAH-WestGreenspoint.h2476317.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1928 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r574016320-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1236696</t>
+  </si>
+  <si>
+    <t>574016320</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
+  </si>
+  <si>
+    <t>The accommodations and property were better than expected.  Not to mention the ease of check-in.  did not expect there to be a pool on property nor a gym, but there was.  The breakfast was a little lacking due to no really hot food like eggs or meat of some kind - but was sufficient.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r570413128-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570413128</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Shower not working</t>
+  </si>
+  <si>
+    <t>Only rooms available around Houston airport on a stormy night. Shower not working and humidity smell in the room.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r566578051-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566578051</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>One Night</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised how clean &amp; spacious our room was. We were disappointed that we weren't staying for more than a night. Also, Mickie at the front desk was approachable &amp; friendly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r554874059-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554874059</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>When I arrived at the hotel there were dirty towels on the floor, and a sticky mess on the table, it seems that the only cleaning they did was make the bed and change the soap. The shower was also left dirty. Find someplace else to stay.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r553188839-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553188839</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Exceptional Super 8!! In All aspects!!! Extremely clean, friendly and helpful staff, and the price was great for all amenities! The free breakfast was very impressive as well! We will most definitely stay here again whenever we are in the area and will (and already have) recommended this Super 8 hotel to others!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r552830271-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552830271</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Main problem The Central Air Heating. And Cooling unit did...</t>
+  </si>
+  <si>
+    <t>Main problem The Central Air Heating. And Cooling unit did not work neither did the thermostat on the wall for said unit Work.My mother is 86 She was very unhappy in room #218.The hallways were nice and warm but not the room.For $86 a night not worth that much at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r545677972-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545677972</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>The front desk guy was great. I check in late and he went...</t>
+  </si>
+  <si>
+    <t>The front desk guy was great. I check in late and he went out the way to make sure my boys was comfortable. I plan to stay again. I have nothing bad to say. The hotel was clean ,quiet and comfortable. I will rate it a 10 star hotel love it.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r542322799-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542322799</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Interior and professionalism of staff offset the exterior of the property. Bed was very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r541417375-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541417375</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r532218569-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532218569</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Hit and go place</t>
+  </si>
+  <si>
+    <t>Since first call for reservation personnel behind front desk is not cool at all. Parking is small means don’t go with your toy if you’re a car guy because the only space available will be outside street. Elevator smells like a cave. The pros are price and location from airport just about 15 min. For one or two nights is ok, for long stay.........didn’t recommend .</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r526052657-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526052657</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>Unpleasant service . Bad location next to the highway. The was was leaking in the bathroom making the whole night terrible and wasting of money.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r521729928-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521729928</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r508139619-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508139619</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r506027085-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506027085</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r502672851-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502672851</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Overpriced and terrible service</t>
+  </si>
+  <si>
+    <t>My flight was delayed and had arrived around midnight, so I needed to find a place for the night. The hotels closer to the airport were full and hence I was relieved to find a room in Super 8 Greenspoint. The hotel is situated almost 10 miles from the airport so it might not be the ideal choice for passengers. 
+I will list the pros first. The so called "suite" with 2 queen beds was huge and the amenities were satisfactory. TV with extended HD cable, coffeemaker, microwave, fridge, and basic bathroom toiletries. The check in process was smooth.
+Now on to the cons. The elevator, hallways and even the room had a strong cigarette odor. Despite the size, other than a sofa the suite didn't have a kitchenette or anything that a double queen room wouldn't have. The coffee maker was placed inside the restroom!!! (photo attached). Perhaps the biggest revelation was the complimentary superstart breakfast. It almost featured bread, a waffle maker, frozen cinnamon rolls, yogurt, cereals and hot/cold beverages. Even at 8:30 AM on a Sunday, the breakfast area was not fully stocked. Whenever the bread, milk, yogurt or anything else ran out, the guests needed to inform the front desk. The lady at the front desk was supposed to manage both the desk as well as monitor the breakfast area and she was mostly busy on her mobile phone. As a result, any refill took about...My flight was delayed and had arrived around midnight, so I needed to find a place for the night. The hotels closer to the airport were full and hence I was relieved to find a room in Super 8 Greenspoint. The hotel is situated almost 10 miles from the airport so it might not be the ideal choice for passengers. I will list the pros first. The so called "suite" with 2 queen beds was huge and the amenities were satisfactory. TV with extended HD cable, coffeemaker, microwave, fridge, and basic bathroom toiletries. The check in process was smooth.Now on to the cons. The elevator, hallways and even the room had a strong cigarette odor. Despite the size, other than a sofa the suite didn't have a kitchenette or anything that a double queen room wouldn't have. The coffee maker was placed inside the restroom!!! (photo attached). Perhaps the biggest revelation was the complimentary superstart breakfast. It almost featured bread, a waffle maker, frozen cinnamon rolls, yogurt, cereals and hot/cold beverages. Even at 8:30 AM on a Sunday, the breakfast area was not fully stocked. Whenever the bread, milk, yogurt or anything else ran out, the guests needed to inform the front desk. The lady at the front desk was supposed to manage both the desk as well as monitor the breakfast area and she was mostly busy on her mobile phone. As a result, any refill took about 10-12 minutes, there was obviously no monitoring and the trash can was overflowing. By 9 AM, she announced that they had run out of thawed cinnamon rolls. Overall, it was quite the show. Given the significantly larger list of cons, I sincerely felt that this hotel is by no means worth the price and possibly not even worth a 2.5 star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>My flight was delayed and had arrived around midnight, so I needed to find a place for the night. The hotels closer to the airport were full and hence I was relieved to find a room in Super 8 Greenspoint. The hotel is situated almost 10 miles from the airport so it might not be the ideal choice for passengers. 
+I will list the pros first. The so called "suite" with 2 queen beds was huge and the amenities were satisfactory. TV with extended HD cable, coffeemaker, microwave, fridge, and basic bathroom toiletries. The check in process was smooth.
+Now on to the cons. The elevator, hallways and even the room had a strong cigarette odor. Despite the size, other than a sofa the suite didn't have a kitchenette or anything that a double queen room wouldn't have. The coffee maker was placed inside the restroom!!! (photo attached). Perhaps the biggest revelation was the complimentary superstart breakfast. It almost featured bread, a waffle maker, frozen cinnamon rolls, yogurt, cereals and hot/cold beverages. Even at 8:30 AM on a Sunday, the breakfast area was not fully stocked. Whenever the bread, milk, yogurt or anything else ran out, the guests needed to inform the front desk. The lady at the front desk was supposed to manage both the desk as well as monitor the breakfast area and she was mostly busy on her mobile phone. As a result, any refill took about...My flight was delayed and had arrived around midnight, so I needed to find a place for the night. The hotels closer to the airport were full and hence I was relieved to find a room in Super 8 Greenspoint. The hotel is situated almost 10 miles from the airport so it might not be the ideal choice for passengers. I will list the pros first. The so called "suite" with 2 queen beds was huge and the amenities were satisfactory. TV with extended HD cable, coffeemaker, microwave, fridge, and basic bathroom toiletries. The check in process was smooth.Now on to the cons. The elevator, hallways and even the room had a strong cigarette odor. Despite the size, other than a sofa the suite didn't have a kitchenette or anything that a double queen room wouldn't have. The coffee maker was placed inside the restroom!!! (photo attached). Perhaps the biggest revelation was the complimentary superstart breakfast. It almost featured bread, a waffle maker, frozen cinnamon rolls, yogurt, cereals and hot/cold beverages. Even at 8:30 AM on a Sunday, the breakfast area was not fully stocked. Whenever the bread, milk, yogurt or anything else ran out, the guests needed to inform the front desk. The lady at the front desk was supposed to manage both the desk as well as monitor the breakfast area and she was mostly busy on her mobile phone. As a result, any refill took about 10-12 minutes, there was obviously no monitoring and the trash can was overflowing. By 9 AM, she announced that they had run out of thawed cinnamon rolls. Overall, it was quite the show. Given the significantly larger list of cons, I sincerely felt that this hotel is by no means worth the price and possibly not even worth a 2.5 star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r486480559-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486480559</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r479559142-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479559142</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r474838996-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474838996</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r465528121-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465528121</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Great Room for the area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean. They ran out of pillows so we couldn't get any extra besides the two in our room. Then breakfast needs some work and the hallways smelled like smoke and cigarettes. Staff was nice and professional. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r462131179-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462131179</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Feel like my home in Houston</t>
+  </si>
+  <si>
+    <t>This was my forth stay in this hotel. And every time I had best experience. Every time my stay was not less than a month. Feel like my home there. And the rate they offer me for a long stay is also reasonable.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r457244245-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457244245</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r445635048-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445635048</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r438096594-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438096594</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r436332331-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436332331</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>It's GOTTA be a Texas thang!!</t>
+  </si>
+  <si>
+    <t>Checked in very late after a meeting with the Super Bowl host committee in downtown Houston. The hotel room, on the third floor, was spacious and clean just as my room was the previous month... again TWO king sized beds could have fit in there with room to spare. Bed check done... nothing there but me... and appears they have recently redone the property.  Very quiet even though Beltway 8 is literally right outside the property (they are on the frontage road). Quick and easy access from IAH... definitely will stay again when my travels bring me back to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r433305287-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433305287</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Roshan P, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r431842234-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431842234</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Bad bad bad</t>
+  </si>
+  <si>
+    <t>Very bad there was dog poop all over the floor it smelled so freaking bad..told the manager she was such an zombie she didnt care she didn't even look at me too try and resolve the problem MoreShow less</t>
+  </si>
+  <si>
+    <t>Roshan P, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Very bad there was dog poop all over the floor it smelled so freaking bad..told the manager she was such an zombie she didnt care she didn't even look at me too try and resolve the problem More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r431627130-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431627130</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>I am a rewards customer but did not receive my reward...</t>
+  </si>
+  <si>
+    <t>I am a rewards customer but did not receive my reward points upon check out. This was the only problem I had with this hotel. Everything else was great!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Roshan P, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>I am a rewards customer but did not receive my reward points upon check out. This was the only problem I had with this hotel. Everything else was great!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r427778052-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427778052</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks while in the area for work. Great customer service and friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks while in the area for work. Great customer service and friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r421577754-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421577754</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Not too bad....</t>
+  </si>
+  <si>
+    <t>This was very close to the airport and although the area looks sketchy, it was pretty decent overall. The night staff was very helpful. Breakfast was a bit lacking. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This was very close to the airport and although the area looks sketchy, it was pretty decent overall. The night staff was very helpful. Breakfast was a bit lacking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r412952633-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412952633</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>work trip</t>
+  </si>
+  <si>
+    <t>The ones behind the front desk very unfriendly and lazy couldn't even put out hot food like it was suppose to be on weekend.Trash all over parking lot</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r394517665-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394517665</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r393230128-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393230128</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>The property itself was clean and well kept. The room was clean and the bathroom was in good order. However the bed was hard as hotel beds are and not comfortable. It was over a 100 degrees outside and the air conditioning had been turned completely off and the room was at 93 degrees. It took hours to cool the room off. There were no local channels on the Directv.MoreShow less</t>
+  </si>
+  <si>
+    <t>The property itself was clean and well kept. The room was clean and the bathroom was in good order. However the bed was hard as hotel beds are and not comfortable. It was over a 100 degrees outside and the air conditioning had been turned completely off and the room was at 93 degrees. It took hours to cool the room off. There were no local channels on the Directv.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r387942647-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387942647</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>I honestly don't know how to rate this hotel. I mean it's a Super 8 hotel, it's probably exactly what you would expect it to be... Basic! Complimentary breakfast was lacklustre, really nothing special. Some standard cereal, crappy coffee and bread. I got "upgraded" to a premium room because they over booked the hotel. Which I wasn't complaining about, until I saw the room It was on the main level of the hotel, where they had speakers blaring a radio station that seemed to only play commercials. I could hear this from inside of my room. The room had a large jacuzzi tub next to the bed which was a nice touch. The bed itself was very comfortable. There was a window in the room that just outside of it had a blinding light just below it, the light was shining so brightly it was basically daylight in the room 24/7.Don't sleep in room 124 if you get upgraded and appreciate darkness as well as peace and quiet when you sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>I honestly don't know how to rate this hotel. I mean it's a Super 8 hotel, it's probably exactly what you would expect it to be... Basic! Complimentary breakfast was lacklustre, really nothing special. Some standard cereal, crappy coffee and bread. I got "upgraded" to a premium room because they over booked the hotel. Which I wasn't complaining about, until I saw the room It was on the main level of the hotel, where they had speakers blaring a radio station that seemed to only play commercials. I could hear this from inside of my room. The room had a large jacuzzi tub next to the bed which was a nice touch. The bed itself was very comfortable. There was a window in the room that just outside of it had a blinding light just below it, the light was shining so brightly it was basically daylight in the room 24/7.Don't sleep in room 124 if you get upgraded and appreciate darkness as well as peace and quiet when you sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r380083755-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380083755</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Average Quality..</t>
+  </si>
+  <si>
+    <t>I stayed at Super 8 IAH/Greenspoint from Friday May 20-Wednesday May 25. I knew that for the price I was paying I wasnt going to get the best service but I thought it would be better then what it was.. I just want people to know the truth before going to a hotel..
+I payed 85 a night.. so average.. the room we got was nice it was on the first floor at the very end of the hallway.. it was EXTREMELY noisy every morning because of all the people going down the stair way which woke me up almost everyday.
+On Sunday Night about 230 I woke up to the air conditioning turning off and it being completely BLACK.. the power had went out.. being in Houston I thought maybe it was just the weather.. All of a sudden I heard this beeping noise.. loud but not loud enough to be worried.. I woke up my boyfriend as I maybe thought it was our car alarm or someone else's? He went out in the hallway and someone informed us that it was a Fire ALARM! We didn't even really hear it as it was only going off on the third floor? NOT SAFE..
+We sat in the parking lot for over an HOUR before the fire department came and I called super 8 main line.. and asked if there was anything they could do.. they were extremely rude and...I stayed at Super 8 IAH/Greenspoint from Friday May 20-Wednesday May 25. I knew that for the price I was paying I wasnt going to get the best service but I thought it would be better then what it was.. I just want people to know the truth before going to a hotel..I payed 85 a night.. so average.. the room we got was nice it was on the first floor at the very end of the hallway.. it was EXTREMELY noisy every morning because of all the people going down the stair way which woke me up almost everyday.On Sunday Night about 230 I woke up to the air conditioning turning off and it being completely BLACK.. the power had went out.. being in Houston I thought maybe it was just the weather.. All of a sudden I heard this beeping noise.. loud but not loud enough to be worried.. I woke up my boyfriend as I maybe thought it was our car alarm or someone else's? He went out in the hallway and someone informed us that it was a Fire ALARM! We didn't even really hear it as it was only going off on the third floor? NOT SAFE..We sat in the parking lot for over an HOUR before the fire department came and I called super 8 main line.. and asked if there was anything they could do.. they were extremely rude and I was mad as it was 4am and I was sitting in my car. NOTHING WAS DONE.. no-one apologized about this issue NO type of discount or ANYTHING.. I AM NOT IMPRESSED. The power didn't go back on until about 530-600am.. Lucky I was on this trip for personal reasons because if I was on business I would be very upset.Also.. the housekeeping was very poor .. some days they didn't even come to our room at all and the one day I called to ask to get some towels and no-one at the front desk answered... so i hung up and tried again.. NO ONE ANSWERED.. I went down to the front desk myself and the receptionist was sitting in the lobby on the couch with some guy.. very professional..... She informed me that I need to bring my towels down to get new ones because people steal them.. I would NEVER steal hotel towels so this kind of made me feel like they thought i would.. I get that this is a hotel wide issue and people do steal but they gave us the minimum amount of towels they could and some people do like to shower more then once a day.The pool was very nice it was clean we went swimming and sat on the patio area. I was happy with this because it was very hot, and being from Canada I am not used to the heat.I wouldn't stay here again and I wouldn't recommend it to anyone.. I tried it once but it was one of the more run down super 8 I have stayed at.Do your research before you go somewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I stayed at Super 8 IAH/Greenspoint from Friday May 20-Wednesday May 25. I knew that for the price I was paying I wasnt going to get the best service but I thought it would be better then what it was.. I just want people to know the truth before going to a hotel..
+I payed 85 a night.. so average.. the room we got was nice it was on the first floor at the very end of the hallway.. it was EXTREMELY noisy every morning because of all the people going down the stair way which woke me up almost everyday.
+On Sunday Night about 230 I woke up to the air conditioning turning off and it being completely BLACK.. the power had went out.. being in Houston I thought maybe it was just the weather.. All of a sudden I heard this beeping noise.. loud but not loud enough to be worried.. I woke up my boyfriend as I maybe thought it was our car alarm or someone else's? He went out in the hallway and someone informed us that it was a Fire ALARM! We didn't even really hear it as it was only going off on the third floor? NOT SAFE..
+We sat in the parking lot for over an HOUR before the fire department came and I called super 8 main line.. and asked if there was anything they could do.. they were extremely rude and...I stayed at Super 8 IAH/Greenspoint from Friday May 20-Wednesday May 25. I knew that for the price I was paying I wasnt going to get the best service but I thought it would be better then what it was.. I just want people to know the truth before going to a hotel..I payed 85 a night.. so average.. the room we got was nice it was on the first floor at the very end of the hallway.. it was EXTREMELY noisy every morning because of all the people going down the stair way which woke me up almost everyday.On Sunday Night about 230 I woke up to the air conditioning turning off and it being completely BLACK.. the power had went out.. being in Houston I thought maybe it was just the weather.. All of a sudden I heard this beeping noise.. loud but not loud enough to be worried.. I woke up my boyfriend as I maybe thought it was our car alarm or someone else's? He went out in the hallway and someone informed us that it was a Fire ALARM! We didn't even really hear it as it was only going off on the third floor? NOT SAFE..We sat in the parking lot for over an HOUR before the fire department came and I called super 8 main line.. and asked if there was anything they could do.. they were extremely rude and I was mad as it was 4am and I was sitting in my car. NOTHING WAS DONE.. no-one apologized about this issue NO type of discount or ANYTHING.. I AM NOT IMPRESSED. The power didn't go back on until about 530-600am.. Lucky I was on this trip for personal reasons because if I was on business I would be very upset.Also.. the housekeeping was very poor .. some days they didn't even come to our room at all and the one day I called to ask to get some towels and no-one at the front desk answered... so i hung up and tried again.. NO ONE ANSWERED.. I went down to the front desk myself and the receptionist was sitting in the lobby on the couch with some guy.. very professional..... She informed me that I need to bring my towels down to get new ones because people steal them.. I would NEVER steal hotel towels so this kind of made me feel like they thought i would.. I get that this is a hotel wide issue and people do steal but they gave us the minimum amount of towels they could and some people do like to shower more then once a day.The pool was very nice it was clean we went swimming and sat on the patio area. I was happy with this because it was very hot, and being from Canada I am not used to the heat.I wouldn't stay here again and I wouldn't recommend it to anyone.. I tried it once but it was one of the more run down super 8 I have stayed at.Do your research before you go somewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r377672888-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377672888</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>good price-performance ratio</t>
+  </si>
+  <si>
+    <t>Speditiver and friendly receptionist. Clean and nice room with Wi-fi included. Comfortable bed with great pillow and cover. Good breakfast included. Refreshing pool with pooltowels. Gym and laundry. Easy Access to the Airport with own car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r375143096-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375143096</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>While in Houston, Stay Here</t>
+  </si>
+  <si>
+    <t>I always pick this property. If you want a hotel that is constantly above average, this is the one. Friendly and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r361767166-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361767166</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great Room, Great service</t>
+  </si>
+  <si>
+    <t>Room was great.  Easy access to the Airport and my local office.  Excellent staff.  I have stayed here multiple times over the past few months and have not been let down.  Easy friendly staff always available.  Nice clean rooms with Wifi included.  Gym, laundry, and pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Roshan P, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Room was great.  Easy access to the Airport and my local office.  Excellent staff.  I have stayed here multiple times over the past few months and have not been let down.  Easy friendly staff always available.  Nice clean rooms with Wifi included.  Gym, laundry, and pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r361740796-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361740796</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The staff at the front desk were wonderful.  Beds are great and the rooms overall are very well cared for.  The rooms were updated a couple of years ago and everything is fresh and clean.  It has an outdoor pool that appears to be quite inviting.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The staff at the front desk were wonderful.  Beds are great and the rooms overall are very well cared for.  The rooms were updated a couple of years ago and everything is fresh and clean.  It has an outdoor pool that appears to be quite inviting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r359166802-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359166802</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>I don't like tests</t>
+  </si>
+  <si>
+    <t>I had to travel here for a test.  Staff were very friendly and helpful.  Room itself was good, but could hear highway from my room, made it hard to sleep.  Tests are a necessary evil, I would stay in this hotel again gladly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to travel here for a test.  Staff were very friendly and helpful.  Room itself was good, but could hear highway from my room, made it hard to sleep.  Tests are a necessary evil, I would stay in this hotel again gladly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r354548533-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354548533</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Always Friendly</t>
+  </si>
+  <si>
+    <t>Always friendly and clean. This is where I stay at least 3 times a month for business. I have tried several and this is where I stay when I am in the area. Convenient to the airport, the office and The Woodlands are right up the highway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r351560512-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351560512</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Great getaway</t>
+  </si>
+  <si>
+    <t>Room excellent, staff friendly, loved everything and it was cleaned. I will come back again with my family. Really had an great experience and booking was very easy. The rooms had iron, iron board, just really nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Roshan P, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Room excellent, staff friendly, loved everything and it was cleaned. I will come back again with my family. Really had an great experience and booking was very easy. The rooms had iron, iron board, just really nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r351134751-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351134751</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>The place is nice but they try to get u out of there way before check out and the breakfast is a joke if checkout is at 11 than dnt come knocking at 9:30am telling me to check out...other than that it's nice and cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>The place is nice but they try to get u out of there way before check out and the breakfast is a joke if checkout is at 11 than dnt come knocking at 9:30am telling me to check out...other than that it's nice and cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r343662176-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343662176</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Inexpensive, surprisingly nice!</t>
+  </si>
+  <si>
+    <t>I stayed at a Doubletree by Hilton about 3 miles from this hotel on Tuesday night at a rate of about $249 for the night for a meeting there. Too tired to drive home fours hours away but not willing to plunk down another fortune for a so-so second night at the Doubletree, someone told me they had stayed at the Super 8 the night before and fond it very nice and cheap. I was skeptical but decided it should be o.k. for one night for $72!  They were right. It WAS nice, pretty much the same as the Doubletree room but far cheaper and with a decent breakfast included. Cereal, biscuits, gravy, yogurt, bananas, Danish, frozen waffles, etc., but still better than the no-breakfast included at Doubletree and the wifi was free and-behold- it even worked very well!  Granted, this is in an area that is a bit industrial but it was fine and there are several other hotels nearby so it's not all by itself.  No really close good restaurants, though. Anyway, I was super pleased with the rate, the room, and the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I stayed at a Doubletree by Hilton about 3 miles from this hotel on Tuesday night at a rate of about $249 for the night for a meeting there. Too tired to drive home fours hours away but not willing to plunk down another fortune for a so-so second night at the Doubletree, someone told me they had stayed at the Super 8 the night before and fond it very nice and cheap. I was skeptical but decided it should be o.k. for one night for $72!  They were right. It WAS nice, pretty much the same as the Doubletree room but far cheaper and with a decent breakfast included. Cereal, biscuits, gravy, yogurt, bananas, Danish, frozen waffles, etc., but still better than the no-breakfast included at Doubletree and the wifi was free and-behold- it even worked very well!  Granted, this is in an area that is a bit industrial but it was fine and there are several other hotels nearby so it's not all by itself.  No really close good restaurants, though. Anyway, I was super pleased with the rate, the room, and the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r339181192-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339181192</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Mostly Good</t>
+  </si>
+  <si>
+    <t>I was happy until I noticed a bug of some sort on the ceiling.  Even after housekeeping cleaned either a new one or the same continued a back and forwards trek across the ceiling out of my reach even standing on the bed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r335985347-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335985347</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>good rest - bad breakfast</t>
+  </si>
+  <si>
+    <t>A cancelled flight left me stranded at 11 pm at Houston airport. Needed a place to stay the night and rest to get two intercontinental flights the next day.Booked at Super 8 throught their website. Easy and fast booking.Arrived exhausted at the hotel at about 2 AM. Smooth check-in.Good sleep.But had to hurry in the morning as breakfast ended at 9 AM.Not much left. Just some toasts with marmelade.Besides this, everything was fine.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r328515306-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328515306</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The staff was very nice a accommodating to me and mu family.We cheched in about 7:45 p.m. and we did have to leave at 11:30 am. (That was out late check) even after inquiring about the cost for additional stay.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r328102825-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328102825</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t>I stayed at this location for three nights. Overall I would say I was pleased with this experience. The rooms were clean and well kept. Had a comfortable bed and a lot of room. I think the only downside was that the gentleman working the front desk at my checkin and checkout gave me somewhat of a strange vibe but nothing too bad. Would recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r325190010-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325190010</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r311846013-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311846013</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r304436061-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304436061</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r296734183-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296734183</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r285434697-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285434697</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Hotel smelled of pot</t>
+  </si>
+  <si>
+    <t>Stayed two nights and there were two coupes there that were smoking pot and it permeated through the entire 3rd floor.  I won't ever return here MoreShow less</t>
+  </si>
+  <si>
+    <t>GMSuper8IAH, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Stayed two nights and there were two coupes there that were smoking pot and it permeated through the entire 3rd floor.  I won't ever return here More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r281482620-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281482620</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r275564518-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275564518</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Good night!</t>
+  </si>
+  <si>
+    <t>We didn't arrive until after 12, and was glad to see a security guard and an alert and efficient desk attendant. The faint order of smoke on the third floor was bearable, and did not smell recent.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r267391292-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267391292</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Was Very Surprised</t>
+  </si>
+  <si>
+    <t>I was very surprised by this place.Pros:Clean RoomFriendly StaffNice RatesCons:Pool area neglectedArea little sketchy feelingI would comeback again, can't complain about the area because Houston does not have a zoning law so you can have a trailer home next to a hotel if they wanted.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r265964197-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265964197</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r264695278-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264695278</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Stay at Super 8</t>
+  </si>
+  <si>
+    <t>The room was very clean and convenient to our needs.  The staff at the hotel was super.  Very friendly and excellent with anything we needed.  WILL stay there again!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r259641822-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259641822</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r258138901-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258138901</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r257446268-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257446268</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>The room was disgusting.. Hair all over the bed sheets &amp; pillows, dirty duvet cover, filthy furniture, terrible odor in room.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r254358938-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254358938</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>Motel was affordable, clean,..extremely convenient to get to the airport in the morning..tried to use the hotel computer to get my boarding passes for my flight but the computer wouldn't hook up to internet but the more than helpful front staff assisted me and got me checked in..Bed was comfortable but could use new sheets, they were clean but paper thin....MoreShow less</t>
+  </si>
+  <si>
+    <t>GMSuper8IAH, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Motel was affordable, clean,..extremely convenient to get to the airport in the morning..tried to use the hotel computer to get my boarding passes for my flight but the computer wouldn't hook up to internet but the more than helpful front staff assisted me and got me checked in..Bed was comfortable but could use new sheets, they were clean but paper thin....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r250006870-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250006870</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>GMSuper8IAH, General Manager at Super 8 by Wyndham Iah West/Greenspoint, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r248995911-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248995911</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>No shuttle from Airport</t>
+  </si>
+  <si>
+    <t>We missed our reservation and $75 because the Super 8 shuttle that picked us up from the IAH airport at 2 AM was for a different Super 8.  As the taxi fees to get to this hotel and back to the airport were costly, we stayed at the Super 8 that had picked us up from the automated phone kiosk at the arrivals gate.  These hotels could not honor our prepaid reservation at THIS hotel.  I don't think it has any right to include IAH in it's title and will be disputing the charge on my visa.MoreShow less</t>
+  </si>
+  <si>
+    <t>We missed our reservation and $75 because the Super 8 shuttle that picked us up from the IAH airport at 2 AM was for a different Super 8.  As the taxi fees to get to this hotel and back to the airport were costly, we stayed at the Super 8 that had picked us up from the automated phone kiosk at the arrivals gate.  These hotels could not honor our prepaid reservation at THIS hotel.  I don't think it has any right to include IAH in it's title and will be disputing the charge on my visa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r242352558-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242352558</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r239980908-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239980908</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>A short 3 day stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like the size of the room and the bed was very comfortable and the room clean.  The price was right and the staff helpful.  The breakfast needed to be put in the Mirco wave to be heated up. the Sausage and Biscuts still frozen on morning. The last day the plates were not present and they ran out of coffeee. I don't drink the stuff so it did not matter to me but another person was sad when told it would take 30 minutes.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r239292127-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239292127</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Impressed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a clean, well-kept motel with plenty of amenities for a comfortable stay. Good location for the airport and there are stores and restaurants nearby. Breakfast was fine and staff was helpful. Would stay again if in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r233852466-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233852466</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I stayed here during a trip and I can honestly say it was below horrible. The carpet was filthy and the  the beds comforters were its match. The service was excellent but it doesn't excuse the filthiness of this hotel. All I can say is disgusting!!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r228892986-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228892986</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r210649475-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210649475</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r204919442-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204919442</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is for sure not top of the line. For the class hotel it is, though, it is quite nice. The staff is particularly friendly and helpful. The lobby is nice. The rooms are large, clean and have what I needed for my stay. I am a business traveler. I normally stay at higher end hotels. It was out of necessity that I ended up here. My colleagues ended up in a different hotel. I had by far the better hotel.If you are in the area and prefer this class of hotel, this is a sure bet.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r204503250-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204503250</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r200342815-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200342815</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r192786530-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192786530</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Booked a room through priceline. No shuttle service and the cab ride is 23.00 each way from the airport. Arrived and was greeted by a nice front desk attendant but the room was disgusting. Mold on the shower head, trash on the bathroom floor, used soap in the shower, thin, dingy towels, wrinkled, thin bed sheets, hard pillows, large opening in the window that brought in cold air AND the loud noise from the freeway. The complimentary breakfast was not much better. Waffle's tasted like cardboard, the pastries seemed to be packages from SAMs club, the orange juice and apple juice were sugar water and the breakfast attendant started removing the breakfast before it was scheduled to be over. Will not be staying here again. I took photos but I am unable to post them for some reason. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Booked a room through priceline. No shuttle service and the cab ride is 23.00 each way from the airport. Arrived and was greeted by a nice front desk attendant but the room was disgusting. Mold on the shower head, trash on the bathroom floor, used soap in the shower, thin, dingy towels, wrinkled, thin bed sheets, hard pillows, large opening in the window that brought in cold air AND the loud noise from the freeway. The complimentary breakfast was not much better. Waffle's tasted like cardboard, the pastries seemed to be packages from SAMs club, the orange juice and apple juice were sugar water and the breakfast attendant started removing the breakfast before it was scheduled to be over. Will not be staying here again. I took photos but I am unable to post them for some reason. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r190747003-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190747003</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r184079392-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184079392</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Awesome Hotel!</t>
+  </si>
+  <si>
+    <t>This is an awesome hotel.  Very, very clean, all carpets are clean and beds are pillowtop and the rate was fantastic compared to other hotels in Houston.  I was skeptical about staying in what most consider to be a lower end hotel chain, however from all of the reviews I read (and all were recent) I decided to give them a try and I was really glad I did.  I was only in town for 1 night, however one of my managers will be traveling to Houston in two weeks and I have booked him to stay for a full week.  The pool area is very clean and nice as well as the workout room and equipment.  They have a separate breakfast room and for breakfasts they offer biscuits and gravy, bacon, sausage, oatmeal, waffles, cereals, apple and orange juices, milk and coffee.  The night manager on duty when I stayed was Marium and she was absolutely wonderful.  Very nice and knowledgeable about the area.  Try it, you will not be sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an awesome hotel.  Very, very clean, all carpets are clean and beds are pillowtop and the rate was fantastic compared to other hotels in Houston.  I was skeptical about staying in what most consider to be a lower end hotel chain, however from all of the reviews I read (and all were recent) I decided to give them a try and I was really glad I did.  I was only in town for 1 night, however one of my managers will be traveling to Houston in two weeks and I have booked him to stay for a full week.  The pool area is very clean and nice as well as the workout room and equipment.  They have a separate breakfast room and for breakfasts they offer biscuits and gravy, bacon, sausage, oatmeal, waffles, cereals, apple and orange juices, milk and coffee.  The night manager on duty when I stayed was Marium and she was absolutely wonderful.  Very nice and knowledgeable about the area.  Try it, you will not be sorry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r180406111-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180406111</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Smokey, cigarette burns</t>
+  </si>
+  <si>
+    <t>The lady that checked us in was very pleasant, after that it was all down hill.  We paid for a non smoking room, but the whole floor stunk of cigarette smoke.  Our bed comforter had cigarette burns, the shower had water damage, the tiny corner shelf in the shower was obviously crooked.  The chair and ottoman had large stains.  The pillows were small squares that felt that they were stuffed with rocks. There was also a lot of air traffic noise and highway traffic noise.  The breakfast was a joke.  There were disgusting looking sausage patties and rock hard biscuits in a small buffet warmer that wasn't even turned on.  A couple containers of yogurt in a bowl of melted ice, cereal but no milk.  The morning desk clerk was very aloof and unfriendly.  I was thoroughly disappointed, to say the least.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The lady that checked us in was very pleasant, after that it was all down hill.  We paid for a non smoking room, but the whole floor stunk of cigarette smoke.  Our bed comforter had cigarette burns, the shower had water damage, the tiny corner shelf in the shower was obviously crooked.  The chair and ottoman had large stains.  The pillows were small squares that felt that they were stuffed with rocks. There was also a lot of air traffic noise and highway traffic noise.  The breakfast was a joke.  There were disgusting looking sausage patties and rock hard biscuits in a small buffet warmer that wasn't even turned on.  A couple containers of yogurt in a bowl of melted ice, cereal but no milk.  The morning desk clerk was very aloof and unfriendly.  I was thoroughly disappointed, to say the least.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r178502169-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178502169</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r177601375-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177601375</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r172115745-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172115745</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r171624589-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171624589</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r166112998-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166112998</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r161744723-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161744723</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r161179207-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161179207</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r159334669-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159334669</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r155249641-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155249641</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r154402636-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154402636</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Typical - not great - very noisy room, nice staff</t>
+  </si>
+  <si>
+    <t>We ended up at this hotel when the prepaid reservation we had at a hotel next door was sold to someone else and that hotel set it up so the Super 8 would accept us.  The front desk staff were pleasant and while we were thankful to have a room - and the room was spacious and clean - it was very noisy through the night from street noise.  It was showing it's age - burns in the carpet, minimal quality toiletries, the thinnest towels I have ever seen - virtually see-through and very small bath towels.  The breakfast was basic- cold cereal, bagel, juice, coffee. The room did have a fridge and microwave.  We would not have selected this hotel but were grateful to have a place to stay after being bumped by the other place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We ended up at this hotel when the prepaid reservation we had at a hotel next door was sold to someone else and that hotel set it up so the Super 8 would accept us.  The front desk staff were pleasant and while we were thankful to have a room - and the room was spacious and clean - it was very noisy through the night from street noise.  It was showing it's age - burns in the carpet, minimal quality toiletries, the thinnest towels I have ever seen - virtually see-through and very small bath towels.  The breakfast was basic- cold cereal, bagel, juice, coffee. The room did have a fridge and microwave.  We would not have selected this hotel but were grateful to have a place to stay after being bumped by the other place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r152354610-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152354610</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r148392207-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148392207</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Basic and functional</t>
+  </si>
+  <si>
+    <t>This stay was at the end of a long 3 week family vacation trip so it was just about having a place to stay in the night before our flight. The motel meets all your basic needs: clean, spacious rooms, hot showers, free breakfast. Service was not rude but no big smiles. Not sure why anyone would stay here if they didn't need to be near the airport because there are no views (other than the roads and the large power station just opposite) and there does not seem to be any POIs nearby. They have free wi-fi and some in-room dining options if it's not convenient for you to go out to buy food.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This stay was at the end of a long 3 week family vacation trip so it was just about having a place to stay in the night before our flight. The motel meets all your basic needs: clean, spacious rooms, hot showers, free breakfast. Service was not rude but no big smiles. Not sure why anyone would stay here if they didn't need to be near the airport because there are no views (other than the roads and the large power station just opposite) and there does not seem to be any POIs nearby. They have free wi-fi and some in-room dining options if it's not convenient for you to go out to buy food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r148316484-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148316484</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The hotel was very clean. No weird or disgusting smells. It was a really peaceful stay for my boyfriend and I. There was free WiFi and a pool. Though we didn't get to use the pool because it was too cold. There is also a nice TV, fridge and microwave in the room. Our room key was only programmed for one night instead of 2 as it should have been, but when we went to the front desk to fix it there wasn't any issue. The only negatives I have are the house keeping staff knocked on our door at 9 a.m. to try and clean the room even though we had the "DO NOT DISTURB" sign on the door. Also, they need to put more than just 2 bath towels in the bathroom. Some women, such as myself, prefer one towel for our hair and another for our body.We don't necessarily favor Houston, but if we had to go back, we would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very clean. No weird or disgusting smells. It was a really peaceful stay for my boyfriend and I. There was free WiFi and a pool. Though we didn't get to use the pool because it was too cold. There is also a nice TV, fridge and microwave in the room. Our room key was only programmed for one night instead of 2 as it should have been, but when we went to the front desk to fix it there wasn't any issue. The only negatives I have are the house keeping staff knocked on our door at 9 a.m. to try and clean the room even though we had the "DO NOT DISTURB" sign on the door. Also, they need to put more than just 2 bath towels in the bathroom. Some women, such as myself, prefer one towel for our hair and another for our body.We don't necessarily favor Houston, but if we had to go back, we would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r147831255-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147831255</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>Very nice and comfy</t>
+  </si>
+  <si>
+    <t>The room was very nice, it was neutrally decorated and everything was clean and pleasant. The internet was okay and there was a nice flat screen tv. The toilet clogged the first time it was used. We mentioned the clogging in the lobby and they just gave us a plunger and didnt even offer to sent someone to take care of it. That would have been fine for a cheaper hotel, we just expected more. The service at the front desk wasnt great at any time. The hosts seemed like they didnt want to be there and it took a while for them to come to the front desk from the back as service was needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very nice, it was neutrally decorated and everything was clean and pleasant. The internet was okay and there was a nice flat screen tv. The toilet clogged the first time it was used. We mentioned the clogging in the lobby and they just gave us a plunger and didnt even offer to sent someone to take care of it. That would have been fine for a cheaper hotel, we just expected more. The service at the front desk wasnt great at any time. The hosts seemed like they didnt want to be there and it took a while for them to come to the front desk from the back as service was needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r145133792-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145133792</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r142244061-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142244061</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for over a year for one week of every month. My overall experience has been good. I have found however lately the linens have not been sofe as before. The bed sheets are ok but the towels and washrags have been somewhat rough. The internet has been somewhat lacking in service, it has been hit and miss and since I stay for business I need it functioning properly. The breakfast room has been upgraded and is very well presented and has a great variety of offerings both hot and cold.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r125235368-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125235368</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Second stay here.....3.5 stars</t>
+  </si>
+  <si>
+    <t>It's a newer Super 8 and has pretty nice rooms. I had a king suite with good price from their website. Room was large with quality furniture (comfy couch), flat screen, quality micro-fridge, granite &amp; tile bath, very comfy bed with (slightly) hard pillows, good coffee w/ 4 cup coffee maker.Only negatives - weak lighting due to poor fluorescent bulbs, weak water pressure on third floor, hot water not quite hot enough. Typical very limited breakfast (waffles, raisin bran, juice). Flight path from IAH is nearby, but turning the AC unit to the "On" position provided good white noise, so no problem.Still, a decent hotel for a Super 8 and I'd stay here again. Very friendly front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>It's a newer Super 8 and has pretty nice rooms. I had a king suite with good price from their website. Room was large with quality furniture (comfy couch), flat screen, quality micro-fridge, granite &amp; tile bath, very comfy bed with (slightly) hard pillows, good coffee w/ 4 cup coffee maker.Only negatives - weak lighting due to poor fluorescent bulbs, weak water pressure on third floor, hot water not quite hot enough. Typical very limited breakfast (waffles, raisin bran, juice). Flight path from IAH is nearby, but turning the AC unit to the "On" position provided good white noise, so no problem.Still, a decent hotel for a Super 8 and I'd stay here again. Very friendly front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r103612599-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103612599</t>
+  </si>
+  <si>
+    <t>04/11/2011</t>
+  </si>
+  <si>
+    <t>very good hotel</t>
+  </si>
+  <si>
+    <t>very good value for money hotel was clean rooms where big staff was friendly makes you feel at home i would reccomand to visit this hotel for stay.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r102988865-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102988865</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>Not value for money</t>
+  </si>
+  <si>
+    <t>First let me tell you what i liked. Its clean, near the IAH and thats all. And they have a sticker in the front door saying TRIPADVISOR Recommended hotel.
+the bad...for the price i had to pay the service was not good enough. Internet.., wireless as well as wired was not working when needed. we stayed for three days and each morning and evening (the only time we were @hotel) i had to complain about the internet. And the funny thing is the manager said ...Look the internet is working here @front desk so i dont see any issues... OKKKAYYYYYYY  and ....i didnt asked whether its working @front desk...i am demanding a service which i am told to be available in my room. The breakfast is not that good. First two days they put towels and soap/shampoo and on the third day...no towels or soap. Had to call front desk for that.
+I would have been happy if it was a one star hotel or motel....but this super 8 claims to be 2&amp; half star hotel. But their service is not. I would have felt this much bad for wasting my money if i had not stayed in Baymont Inn Galveston. Because in the baymont inn hotel Galveston i paid less than half the amount what i paid for my room in Super 8 IAH. And service in baymont inn was "SUPERB"..........
+But If you want to stay for one...First let me tell you what i liked. Its clean, near the IAH and thats all. And they have a sticker in the front door saying TRIPADVISOR Recommended hotel.the bad...for the price i had to pay the service was not good enough. Internet.., wireless as well as wired was not working when needed. we stayed for three days and each morning and evening (the only time we were @hotel) i had to complain about the internet. And the funny thing is the manager said ...Look the internet is working here @front desk so i dont see any issues... OKKKAYYYYYYY  and ....i didnt asked whether its working @front desk...i am demanding a service which i am told to be available in my room. The breakfast is not that good. First two days they put towels and soap/shampoo and on the third day...no towels or soap. Had to call front desk for that. I would have been happy if it was a one star hotel or motel....but this super 8 claims to be 2&amp; half star hotel. But their service is not. I would have felt this much bad for wasting my money if i had not stayed in Baymont Inn Galveston. Because in the baymont inn hotel Galveston i paid less than half the amount what i paid for my room in Super 8 IAH. And service in baymont inn was "SUPERB"..........But If you want to stay for one night and dont have to use internet and dont mind paying that much amount for no service, then Super 8  IAH west will be good for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>First let me tell you what i liked. Its clean, near the IAH and thats all. And they have a sticker in the front door saying TRIPADVISOR Recommended hotel.
+the bad...for the price i had to pay the service was not good enough. Internet.., wireless as well as wired was not working when needed. we stayed for three days and each morning and evening (the only time we were @hotel) i had to complain about the internet. And the funny thing is the manager said ...Look the internet is working here @front desk so i dont see any issues... OKKKAYYYYYYY  and ....i didnt asked whether its working @front desk...i am demanding a service which i am told to be available in my room. The breakfast is not that good. First two days they put towels and soap/shampoo and on the third day...no towels or soap. Had to call front desk for that.
+I would have been happy if it was a one star hotel or motel....but this super 8 claims to be 2&amp; half star hotel. But their service is not. I would have felt this much bad for wasting my money if i had not stayed in Baymont Inn Galveston. Because in the baymont inn hotel Galveston i paid less than half the amount what i paid for my room in Super 8 IAH. And service in baymont inn was "SUPERB"..........
+But If you want to stay for one...First let me tell you what i liked. Its clean, near the IAH and thats all. And they have a sticker in the front door saying TRIPADVISOR Recommended hotel.the bad...for the price i had to pay the service was not good enough. Internet.., wireless as well as wired was not working when needed. we stayed for three days and each morning and evening (the only time we were @hotel) i had to complain about the internet. And the funny thing is the manager said ...Look the internet is working here @front desk so i dont see any issues... OKKKAYYYYYYY  and ....i didnt asked whether its working @front desk...i am demanding a service which i am told to be available in my room. The breakfast is not that good. First two days they put towels and soap/shampoo and on the third day...no towels or soap. Had to call front desk for that. I would have been happy if it was a one star hotel or motel....but this super 8 claims to be 2&amp; half star hotel. But their service is not. I would have felt this much bad for wasting my money if i had not stayed in Baymont Inn Galveston. Because in the baymont inn hotel Galveston i paid less than half the amount what i paid for my room in Super 8 IAH. And service in baymont inn was "SUPERB"..........But If you want to stay for one night and dont have to use internet and dont mind paying that much amount for no service, then Super 8  IAH west will be good for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r100784270-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>100784270</t>
+  </si>
+  <si>
+    <t>03/19/2011</t>
+  </si>
+  <si>
+    <t>great price and location</t>
+  </si>
+  <si>
+    <t>hotel is just beside all other major chainsgood area nothuing bad to say10 miinutes from the airportbig parkingvery good rate for a 1 night stay this is a good deal</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r80063590-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>80063590</t>
+  </si>
+  <si>
+    <t>09/18/2010</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Great, Quiet...unbelievable staff, they treat you like family. I would recomend this motel to be amoung the best of the Super 8 chain,</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r77270158-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>77270158</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our texas roundtrip and started our tour in Houston. So we made a reservation for this hotel in advance from Germany. The Hotel is nice and clean. The staff was friendly and the breakfast is average. The surrounding area is not so well. But altogehter I could recommend this hotel for a short stay in the Houston Area.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r63496898-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>63496898</t>
+  </si>
+  <si>
+    <t>05/07/2010</t>
+  </si>
+  <si>
+    <t>This hotel is very good value with nice staff and decent sized rooms.</t>
+  </si>
+  <si>
+    <t>We were picked up from the airport as organised, the car was comfortable and clean and the driver friendly and helpful.  Our room was a good sized one, and the bathroom modern and clean.  We were delighted that a continental breakfast was included, and this proved to be substantial with good choices.  The only disadvantage regarding the position of the hotel is that there is nowhere close that you can walk to if you have arrived in the afternoon and would like to go out for an evening meal.  But the hotel has details of restaurants that deliver food so it partly solved that problem.  The hotel itself was very clean, modern, and the staff attentive and friendly.  Very good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were picked up from the airport as organised, the car was comfortable and clean and the driver friendly and helpful.  Our room was a good sized one, and the bathroom modern and clean.  We were delighted that a continental breakfast was included, and this proved to be substantial with good choices.  The only disadvantage regarding the position of the hotel is that there is nowhere close that you can walk to if you have arrived in the afternoon and would like to go out for an evening meal.  But the hotel has details of restaurants that deliver food so it partly solved that problem.  The hotel itself was very clean, modern, and the staff attentive and friendly.  Very good value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r62029045-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62029045</t>
+  </si>
+  <si>
+    <t>04/20/2010</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>I stayed here on a short business trip recently  and received  unparalleled customer service and a clean, well appointed room. Features inclued a large, flat panel TV and microfridge in the room, a nice sized meeting room,  and biz center off the lobby to  print that all important boarding pass for the trip home.  WiFI worked well all over the hotelProbably the best value in the IAH area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r62028678-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62028678</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>Roshan and is staff were very attentive, not surprising considering the nice facilities they offer!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r62028100-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62028100</t>
+  </si>
+  <si>
+    <t>When in Houston this is the hotel for me!</t>
+  </si>
+  <si>
+    <t>I have so many choices of hotels to stay in when in Houston.  After meeting Roshan and his staff, this is the hotel me.  Superior service, clean throughout the property, great breakfast room &amp; priced right.  The place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r60201327-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60201327</t>
+  </si>
+  <si>
+    <t>04/02/2010</t>
+  </si>
+  <si>
+    <t>Staff bend over backwards to assist you</t>
+  </si>
+  <si>
+    <t>Clean well appointed rooms. Exceptional staff.  They keep their comittmetns</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r60134084-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60134084</t>
+  </si>
+  <si>
+    <t>04/01/2010</t>
+  </si>
+  <si>
+    <t>A really good stay..</t>
+  </si>
+  <si>
+    <t>Taking a flight from Birmingham, UK to Belize City we needed an overnight stay in Houston and were fortunate to find this hotel on Tripadvisor Run by Mr Patel, this good value option (53GBP incl. breakfast) was spotless and perfect for a one-night stay. Beds were magnificently comfortable, we had cable with flatscreen TV, an endless supply of water and a fridge and microwave in room. A/C worked well. We were picked up and dropped off at the airport by Mr Patel and he even stopped off at the BK drive-thru for another passenger as unfortunately there are no nearby restaurants. Breakfast was a simple self-service affair, but contained fresh fruit, cereal, waffles, toast, muffins, etc.. We gather that Super 8 has something of a budget reputation but as people who travel frequently, we were highly impressed by this particular hotel and would not hesitate in recommending it to others..MoreShow less</t>
+  </si>
+  <si>
+    <t>Taking a flight from Birmingham, UK to Belize City we needed an overnight stay in Houston and were fortunate to find this hotel on Tripadvisor Run by Mr Patel, this good value option (53GBP incl. breakfast) was spotless and perfect for a one-night stay. Beds were magnificently comfortable, we had cable with flatscreen TV, an endless supply of water and a fridge and microwave in room. A/C worked well. We were picked up and dropped off at the airport by Mr Patel and he even stopped off at the BK drive-thru for another passenger as unfortunately there are no nearby restaurants. Breakfast was a simple self-service affair, but contained fresh fruit, cereal, waffles, toast, muffins, etc.. We gather that Super 8 has something of a budget reputation but as people who travel frequently, we were highly impressed by this particular hotel and would not hesitate in recommending it to others..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r59505666-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59505666</t>
+  </si>
+  <si>
+    <t>03/25/2010</t>
+  </si>
+  <si>
+    <t>For a budget hotel this is 5 stars!</t>
+  </si>
+  <si>
+    <t>Don't expect Marriot level decor. I usually stay in the nicest hotels when I travel but wanted to give TripAdvisor a shot and this hotel came in at #4 at the time I booked this room. And I had a site visit a half mile away in the morning...
+For a budget hotel this place is superb! Why? It's only a year old as of 03/2010. The place is practically new. The sheets / pillows / comforter didn't smell like cheap detergent, my room still had a new room smell, the shower water got so hot you could boil an egg, the AC unit was new and over sized for the room and ran smooth and sounded new / nice, flat screen tv, new furniture, faux granite counter top in the bathroom, carpet looked new, etc etc etc...
+I won't speak for other Super 8s because I have never stayed at one and I can imagine how after 10 or so years a place like this could be less desirable, but as long as a place like this is new, I can't justify spending more money.
+The staff was great and courteous. The breakfast was good but not great. They had a waffle maker that made waffles shaped like Texas (tho the syrup tasted fake and was not so good), sausage and biscuits, cereal, bagels, English muffins, toast, OJ (really good), apple juice, and danishes. But I have had worse...Don't expect Marriot level decor. I usually stay in the nicest hotels when I travel but wanted to give TripAdvisor a shot and this hotel came in at #4 at the time I booked this room. And I had a site visit a half mile away in the morning...For a budget hotel this place is superb! Why? It's only a year old as of 03/2010. The place is practically new. The sheets / pillows / comforter didn't smell like cheap detergent, my room still had a new room smell, the shower water got so hot you could boil an egg, the AC unit was new and over sized for the room and ran smooth and sounded new / nice, flat screen tv, new furniture, faux granite counter top in the bathroom, carpet looked new, etc etc etc...I won't speak for other Super 8s because I have never stayed at one and I can imagine how after 10 or so years a place like this could be less desirable, but as long as a place like this is new, I can't justify spending more money.The staff was great and courteous. The breakfast was good but not great. They had a waffle maker that made waffles shaped like Texas (tho the syrup tasted fake and was not so good), sausage and biscuits, cereal, bagels, English muffins, toast, OJ (really good), apple juice, and danishes. But I have had worse breakfast at nice Sheratons before so kudos for a $68 hotel room breakfast. I used my AAA discount for 10% off here as well.Can't beat the location for staying near IAH Airport.If I go back for another one day visit I won't hesitate to stay here again. Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>Don't expect Marriot level decor. I usually stay in the nicest hotels when I travel but wanted to give TripAdvisor a shot and this hotel came in at #4 at the time I booked this room. And I had a site visit a half mile away in the morning...
+For a budget hotel this place is superb! Why? It's only a year old as of 03/2010. The place is practically new. The sheets / pillows / comforter didn't smell like cheap detergent, my room still had a new room smell, the shower water got so hot you could boil an egg, the AC unit was new and over sized for the room and ran smooth and sounded new / nice, flat screen tv, new furniture, faux granite counter top in the bathroom, carpet looked new, etc etc etc...
+I won't speak for other Super 8s because I have never stayed at one and I can imagine how after 10 or so years a place like this could be less desirable, but as long as a place like this is new, I can't justify spending more money.
+The staff was great and courteous. The breakfast was good but not great. They had a waffle maker that made waffles shaped like Texas (tho the syrup tasted fake and was not so good), sausage and biscuits, cereal, bagels, English muffins, toast, OJ (really good), apple juice, and danishes. But I have had worse...Don't expect Marriot level decor. I usually stay in the nicest hotels when I travel but wanted to give TripAdvisor a shot and this hotel came in at #4 at the time I booked this room. And I had a site visit a half mile away in the morning...For a budget hotel this place is superb! Why? It's only a year old as of 03/2010. The place is practically new. The sheets / pillows / comforter didn't smell like cheap detergent, my room still had a new room smell, the shower water got so hot you could boil an egg, the AC unit was new and over sized for the room and ran smooth and sounded new / nice, flat screen tv, new furniture, faux granite counter top in the bathroom, carpet looked new, etc etc etc...I won't speak for other Super 8s because I have never stayed at one and I can imagine how after 10 or so years a place like this could be less desirable, but as long as a place like this is new, I can't justify spending more money.The staff was great and courteous. The breakfast was good but not great. They had a waffle maker that made waffles shaped like Texas (tho the syrup tasted fake and was not so good), sausage and biscuits, cereal, bagels, English muffins, toast, OJ (really good), apple juice, and danishes. But I have had worse breakfast at nice Sheratons before so kudos for a $68 hotel room breakfast. I used my AAA discount for 10% off here as well.Can't beat the location for staying near IAH Airport.If I go back for another one day visit I won't hesitate to stay here again. Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r56791152-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56791152</t>
+  </si>
+  <si>
+    <t>02/22/2010</t>
+  </si>
+  <si>
+    <t>Clean, but noisy</t>
+  </si>
+  <si>
+    <t>I was travelling with a colleague for business.  Very easy to get to from the airport.  But the location of the hotel is right off a busy highway, so the noise never stops.  We even requested rooms that were not facing the highway directly, but that made no difference - the outside walls are too thin.  That said, the staff was very nice and helpful, and there was a good free breakfast.  Also, the free internet was great to have.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r54964455-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54964455</t>
+  </si>
+  <si>
+    <t>02/01/2010</t>
+  </si>
+  <si>
+    <t>inexpensive and exceeded expectations</t>
+  </si>
+  <si>
+    <t>pro: new, nice rooms, free breakfast, free internet, free parking, close to airportcon: location was far from other things we did in Houston...not a big deal but had to plan our day accordingly</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r52545953-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>52545953</t>
+  </si>
+  <si>
+    <t>01/04/2010</t>
+  </si>
+  <si>
+    <t>Problems with the shuttle but overall good value in this expensive city</t>
+  </si>
+  <si>
+    <t>Stayed with my husband and grown-up son after flight from London into IAH. Phoned from the baggage hall for the shuttle to pick us up but the shuttle first waited at the wrong terminal (international arrivals come into E and leave from D - you are expected to know this!), then parked up in a gloomy area where the Super 8 sign was hard to read (the bus that day was dark blue with a more visible logo for Comfort Suites). The driver did not bother to identify herself to the waiting line of travellers. So it was some time before we made contact. And on boarding the bus, my husband cut his head on a flip-down TV screen in the roof which should have been retracted. No apology was offered.  
+The hotel itself is spacious and clean though the décor is rather drab (we Brits would say it came from the 1970s). Although it only opened last April, it is already showing signs of wear - water had penetrated the panels around the bath in our room. And we were unable to open the windows in either room so make sure you check the fire exits. Don't have high expectations of breakfast - sweetened cereals, various buns, a waffle maker, and the orange juice had run out - but it's something. However, the shuttle driver obligingly ran us back to the IAH car rental facility in the morning. 
+Overall,...Stayed with my husband and grown-up son after flight from London into IAH. Phoned from the baggage hall for the shuttle to pick us up but the shuttle first waited at the wrong terminal (international arrivals come into E and leave from D - you are expected to know this!), then parked up in a gloomy area where the Super 8 sign was hard to read (the bus that day was dark blue with a more visible logo for Comfort Suites). The driver did not bother to identify herself to the waiting line of travellers. So it was some time before we made contact. And on boarding the bus, my husband cut his head on a flip-down TV screen in the roof which should have been retracted. No apology was offered.  The hotel itself is spacious and clean though the décor is rather drab (we Brits would say it came from the 1970s). Although it only opened last April, it is already showing signs of wear - water had penetrated the panels around the bath in our room. And we were unable to open the windows in either room so make sure you check the fire exits. Don't have high expectations of breakfast - sweetened cereals, various buns, a waffle maker, and the orange juice had run out - but it's something. However, the shuttle driver obligingly ran us back to the IAH car rental facility in the morning. Overall, good value at around £56 sterling a night in this expensive city.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>Stayed with my husband and grown-up son after flight from London into IAH. Phoned from the baggage hall for the shuttle to pick us up but the shuttle first waited at the wrong terminal (international arrivals come into E and leave from D - you are expected to know this!), then parked up in a gloomy area where the Super 8 sign was hard to read (the bus that day was dark blue with a more visible logo for Comfort Suites). The driver did not bother to identify herself to the waiting line of travellers. So it was some time before we made contact. And on boarding the bus, my husband cut his head on a flip-down TV screen in the roof which should have been retracted. No apology was offered.  
+The hotel itself is spacious and clean though the décor is rather drab (we Brits would say it came from the 1970s). Although it only opened last April, it is already showing signs of wear - water had penetrated the panels around the bath in our room. And we were unable to open the windows in either room so make sure you check the fire exits. Don't have high expectations of breakfast - sweetened cereals, various buns, a waffle maker, and the orange juice had run out - but it's something. However, the shuttle driver obligingly ran us back to the IAH car rental facility in the morning. 
+Overall,...Stayed with my husband and grown-up son after flight from London into IAH. Phoned from the baggage hall for the shuttle to pick us up but the shuttle first waited at the wrong terminal (international arrivals come into E and leave from D - you are expected to know this!), then parked up in a gloomy area where the Super 8 sign was hard to read (the bus that day was dark blue with a more visible logo for Comfort Suites). The driver did not bother to identify herself to the waiting line of travellers. So it was some time before we made contact. And on boarding the bus, my husband cut his head on a flip-down TV screen in the roof which should have been retracted. No apology was offered.  The hotel itself is spacious and clean though the décor is rather drab (we Brits would say it came from the 1970s). Although it only opened last April, it is already showing signs of wear - water had penetrated the panels around the bath in our room. And we were unable to open the windows in either room so make sure you check the fire exits. Don't have high expectations of breakfast - sweetened cereals, various buns, a waffle maker, and the orange juice had run out - but it's something. However, the shuttle driver obligingly ran us back to the IAH car rental facility in the morning. Overall, good value at around £56 sterling a night in this expensive city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r49508760-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49508760</t>
+  </si>
+  <si>
+    <t>11/18/2009</t>
+  </si>
+  <si>
+    <t>TripAdvisor works again - another perfect choice</t>
+  </si>
+  <si>
+    <t>As part of our recent early November 3-destination trip to Texas (Houston, Dallas and Austin) this hotel was yet another selected with the aid of TripAdvisor reviews. And you know what, it was another perfect choice!Handy location just 10-12 minutes from Bush Int. Airport, the very nice Greenspoint Mall about the same driving time in the other direction, easy trip to Downton Houston on I45 (about 20-30 minutes, depending on time of day).Attractive, well-kept building, plenty of free parking, nice pool in  sunny spot at the back, and friendly welcome from pleasant staff. Add in the spacious, spotless and perfectly-equipped room, the very useful free business room with no-charge internet and printing, the plentiful free breakfast (just help yourself to whatever you fancy) and you've got yourself the perfect hotel package. When you consider the bargain rate (we paid less than $200 all-included for 3 nights) would you really want to consider anywhere else in Houston? Thanks again, TripAdvisor. You've not let me down once yet!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>As part of our recent early November 3-destination trip to Texas (Houston, Dallas and Austin) this hotel was yet another selected with the aid of TripAdvisor reviews. And you know what, it was another perfect choice!Handy location just 10-12 minutes from Bush Int. Airport, the very nice Greenspoint Mall about the same driving time in the other direction, easy trip to Downton Houston on I45 (about 20-30 minutes, depending on time of day).Attractive, well-kept building, plenty of free parking, nice pool in  sunny spot at the back, and friendly welcome from pleasant staff. Add in the spacious, spotless and perfectly-equipped room, the very useful free business room with no-charge internet and printing, the plentiful free breakfast (just help yourself to whatever you fancy) and you've got yourself the perfect hotel package. When you consider the bargain rate (we paid less than $200 all-included for 3 nights) would you really want to consider anywhere else in Houston? Thanks again, TripAdvisor. You've not let me down once yet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r48933448-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>48933448</t>
+  </si>
+  <si>
+    <t>11/10/2009</t>
+  </si>
+  <si>
+    <t>Fantastic Value!</t>
+  </si>
+  <si>
+    <t>This hotel was wonderful!  Binal at the reception desk was so helpful.  She picked me up from the airport in a free shuttle and returned me at the end of my trip (at horrible times which made it even nicer!)  She looked up restaurants for me in the area.  The hotel is new and is very clean.  The rooms are big and quiet.  The free breakfast had toast, cereals, fruits, juices, coffee, and make your own waffles.  The pool is about 30 ft long and kidney bean shaped with chairs and tables around it.  I stayed for three nights and got a 40% discount so it was about $50 a night.  The price for the service was incredible value!  It was a really nice hotel and I would highly recommend it.I didn't have a car so the location was a bit of a difficulty.  It is very close to the airport, about a five minute drive.  But there aren't that many restaurants in walking distance.  Pizza and Chinese did deliver though!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was wonderful!  Binal at the reception desk was so helpful.  She picked me up from the airport in a free shuttle and returned me at the end of my trip (at horrible times which made it even nicer!)  She looked up restaurants for me in the area.  The hotel is new and is very clean.  The rooms are big and quiet.  The free breakfast had toast, cereals, fruits, juices, coffee, and make your own waffles.  The pool is about 30 ft long and kidney bean shaped with chairs and tables around it.  I stayed for three nights and got a 40% discount so it was about $50 a night.  The price for the service was incredible value!  It was a really nice hotel and I would highly recommend it.I didn't have a car so the location was a bit of a difficulty.  It is very close to the airport, about a five minute drive.  But there aren't that many restaurants in walking distance.  Pizza and Chinese did deliver though!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r48227601-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>48227601</t>
+  </si>
+  <si>
+    <t>11/01/2009</t>
+  </si>
+  <si>
+    <t>Great value, great Hotel.</t>
+  </si>
+  <si>
+    <t>Hotel rooms very comfortable and clean. Helpful staff and free breakfast.No amenities near Hotel, but very good value.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r46803123-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>46803123</t>
+  </si>
+  <si>
+    <t>10/13/2009</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>Stayed here the night before an early morning flight. I went by the reviews but I ws still nervous. It was great!! Hard to believe it was a Super 8. Clean, comfortable rooms. Decent, basic breakfast.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r45492237-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>45492237</t>
+  </si>
+  <si>
+    <t>09/30/2009</t>
+  </si>
+  <si>
+    <t>Super A+!</t>
+  </si>
+  <si>
+    <t>Arriving at IAH after a bad flight, we were cheered up immediately arriving at this Super8 8. Brand new building, superfriendly staff, we felt really welcomed. The clerck saw us coming out of a cab, and he immediately said that we should have taken the free shuttle: "you should give us a call when you are picking up the luggage, and we will be there when you come out of the airport!". Tip for future guests, it could have saved us $25... The rooms are beyond spacious, the carpet is thick as a brick and the beds are soft. This is more than a motel, it is a hotel! WiFi worked perfect, pool is clean, breakfast was overwhelming with biscuits, small burgers, soup, rolls, cereals etcetera.The next day we were driven (for free!)  to the rental car facility, and we promised to take this hotel again for our flight back, and that we would tell everybody that this was a great experience. Looking for a IAH-hotel? Look no further!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Arriving at IAH after a bad flight, we were cheered up immediately arriving at this Super8 8. Brand new building, superfriendly staff, we felt really welcomed. The clerck saw us coming out of a cab, and he immediately said that we should have taken the free shuttle: "you should give us a call when you are picking up the luggage, and we will be there when you come out of the airport!". Tip for future guests, it could have saved us $25... The rooms are beyond spacious, the carpet is thick as a brick and the beds are soft. This is more than a motel, it is a hotel! WiFi worked perfect, pool is clean, breakfast was overwhelming with biscuits, small burgers, soup, rolls, cereals etcetera.The next day we were driven (for free!)  to the rental car facility, and we promised to take this hotel again for our flight back, and that we would tell everybody that this was a great experience. Looking for a IAH-hotel? Look no further!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r40105076-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>40105076</t>
+  </si>
+  <si>
+    <t>09/08/2009</t>
+  </si>
+  <si>
+    <t>cant go wrong</t>
+  </si>
+  <si>
+    <t>My friend and I did a girly weekend and enjoyed the Houston science and history museum. Our hotel was wonderful we got an awesome rate of 48 a night. The room was clean, flat screen tv, fridge, microwave, granite bathroom, nice comfy bed, free internet. There really wasnt anything else I could ask for. great place to stay and we will be coming backmelissa</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r38203768-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>38203768</t>
+  </si>
+  <si>
+    <t>08/19/2009</t>
+  </si>
+  <si>
+    <t>Best hotel in the area, and an incredible staff!</t>
+  </si>
+  <si>
+    <t>Upon arrival, the service and staff was tremendous! Check-in was a breeze and the hotel room was marvelous. Not being from Houston, of course, I had no clue where anything was at but the General Manager, Roshan, was incredibly helpful. While I went up to my room to put my bags up, he printed out directions and they were ready for me at the front desk. I would definitely recommend anyone in the area to stay there because they would receive high quality service at a great price!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r33781138-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>33781138</t>
+  </si>
+  <si>
+    <t>07/02/2009</t>
+  </si>
+  <si>
+    <t>Clean, comfortable hotel</t>
+  </si>
+  <si>
+    <t>This hotel seems to be new or newly renovated because everything looks clean and new. The rooms are amazingly spacious and comfortable. Bed was huge and comfortable. Floors and bathroom, sparkling clean. Staff was so kind and friendly. Had a better stay here than other, much more expensive hotels. We only stayed one night and I wanted to stay longer! I was sure to let the front desk personnel know what a great and comfortable stay we had. The carpet was plush and comfortable on my feet. The room was so spacious, it was great. Wireless internet was fast and easy to connect to.My only complaints: 1. no hair conditioner, only "conditioning shampoo," 2. pillows were too big. That's not usually something I'd complain about, but my pillow was so big it hurt my neck a little. I had to use my husband's pillow since he was able to smoosh his down to a comfortable size. All in all, a top notch hotel. Other hotels should take a lesson from this location. Oh I should also mention that the location is a little strange (not bad, just a bit challenging to find), Houston has a horrible highway system so it's not the hotel's fault.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel seems to be new or newly renovated because everything looks clean and new. The rooms are amazingly spacious and comfortable. Bed was huge and comfortable. Floors and bathroom, sparkling clean. Staff was so kind and friendly. Had a better stay here than other, much more expensive hotels. We only stayed one night and I wanted to stay longer! I was sure to let the front desk personnel know what a great and comfortable stay we had. The carpet was plush and comfortable on my feet. The room was so spacious, it was great. Wireless internet was fast and easy to connect to.My only complaints: 1. no hair conditioner, only "conditioning shampoo," 2. pillows were too big. That's not usually something I'd complain about, but my pillow was so big it hurt my neck a little. I had to use my husband's pillow since he was able to smoosh his down to a comfortable size. All in all, a top notch hotel. Other hotels should take a lesson from this location. Oh I should also mention that the location is a little strange (not bad, just a bit challenging to find), Houston has a horrible highway system so it's not the hotel's fault.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1236696-r31119445-Super_8_by_Wyndham_Iah_West_Greenspoint-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>31119445</t>
+  </si>
+  <si>
+    <t>05/29/2009</t>
+  </si>
+  <si>
+    <t>Beyond Super!!!! I would say extravagant!</t>
+  </si>
+  <si>
+    <t>As soon as we walked in we could smell just how new it was. We were welcomed to the hotel by a very nice young man. We were just passing through Houston so we just needed one night. Thecheck in was fast yet friendly. Our room was suppose to be basic but it turned out to be so  nice that we wondered if the  clerk made a mistake. I was not about to complain. I was a wonderful hotel to stay in.  We will be back!!!</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2463,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2495,7626 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>171</v>
+      </c>
+      <c r="X26" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X27" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>170</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>186</v>
+      </c>
+      <c r="X28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>170</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>186</v>
+      </c>
+      <c r="X29" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>186</v>
+      </c>
+      <c r="X30" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" t="s">
+        <v>206</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>186</v>
+      </c>
+      <c r="X32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" t="s">
+        <v>216</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>186</v>
+      </c>
+      <c r="X33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" t="s">
+        <v>227</v>
+      </c>
+      <c r="L35" t="s">
+        <v>228</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>229</v>
+      </c>
+      <c r="O35" t="s">
+        <v>230</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" t="s">
+        <v>236</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>229</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" t="s">
+        <v>240</v>
+      </c>
+      <c r="L37" t="s">
+        <v>241</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>243</v>
+      </c>
+      <c r="J38" t="s">
+        <v>244</v>
+      </c>
+      <c r="K38" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" t="s">
+        <v>246</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>247</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>248</v>
+      </c>
+      <c r="X38" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" t="s">
+        <v>255</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>248</v>
+      </c>
+      <c r="X39" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>258</v>
+      </c>
+      <c r="J40" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" t="s">
+        <v>260</v>
+      </c>
+      <c r="L40" t="s">
+        <v>261</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>248</v>
+      </c>
+      <c r="X40" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s">
+        <v>267</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>247</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K42" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" t="s">
+        <v>272</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" t="s">
+        <v>230</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>274</v>
+      </c>
+      <c r="X42" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" t="s">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s">
+        <v>281</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>273</v>
+      </c>
+      <c r="O43" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>274</v>
+      </c>
+      <c r="X43" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" t="s">
+        <v>286</v>
+      </c>
+      <c r="L44" t="s">
+        <v>287</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>288</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" t="s">
+        <v>293</v>
+      </c>
+      <c r="L45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>288</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" t="s">
+        <v>299</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>300</v>
+      </c>
+      <c r="O46" t="s">
+        <v>255</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>302</v>
+      </c>
+      <c r="J47" t="s">
+        <v>303</v>
+      </c>
+      <c r="K47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" t="s">
+        <v>305</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" t="s">
+        <v>309</v>
+      </c>
+      <c r="K48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>306</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" t="s">
+        <v>314</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>315</v>
+      </c>
+      <c r="O49" t="s">
+        <v>230</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>317</v>
+      </c>
+      <c r="J50" t="s">
+        <v>318</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>319</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>321</v>
+      </c>
+      <c r="J51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>323</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>324</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>325</v>
+      </c>
+      <c r="J52" t="s">
+        <v>326</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>327</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53" t="s">
+        <v>330</v>
+      </c>
+      <c r="K53" t="s">
+        <v>331</v>
+      </c>
+      <c r="L53" t="s">
+        <v>332</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>323</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>333</v>
+      </c>
+      <c r="X53" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>337</v>
+      </c>
+      <c r="J54" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>323</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>333</v>
+      </c>
+      <c r="X54" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>339</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>340</v>
+      </c>
+      <c r="J55" t="s">
+        <v>341</v>
+      </c>
+      <c r="K55" t="s">
+        <v>342</v>
+      </c>
+      <c r="L55" t="s">
+        <v>343</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>344</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>346</v>
+      </c>
+      <c r="J56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K56" t="s">
+        <v>348</v>
+      </c>
+      <c r="L56" t="s">
+        <v>349</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>350</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>351</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>352</v>
+      </c>
+      <c r="J57" t="s">
+        <v>353</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>350</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>354</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K58" t="s">
+        <v>357</v>
+      </c>
+      <c r="L58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>359</v>
+      </c>
+      <c r="O58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>361</v>
+      </c>
+      <c r="J59" t="s">
+        <v>362</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>359</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>364</v>
+      </c>
+      <c r="J60" t="s">
+        <v>365</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>359</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>366</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>367</v>
+      </c>
+      <c r="J61" t="s">
+        <v>368</v>
+      </c>
+      <c r="K61" t="s">
+        <v>369</v>
+      </c>
+      <c r="L61" t="s">
+        <v>370</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>371</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>373</v>
+      </c>
+      <c r="J62" t="s">
+        <v>374</v>
+      </c>
+      <c r="K62" t="s">
+        <v>375</v>
+      </c>
+      <c r="L62" t="s">
+        <v>376</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>371</v>
+      </c>
+      <c r="O62" t="s">
+        <v>230</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>377</v>
+      </c>
+      <c r="X62" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>380</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>381</v>
+      </c>
+      <c r="J63" t="s">
+        <v>382</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>383</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>384</v>
+      </c>
+      <c r="X63" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>386</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>387</v>
+      </c>
+      <c r="J64" t="s">
+        <v>388</v>
+      </c>
+      <c r="K64" t="s">
+        <v>389</v>
+      </c>
+      <c r="L64" t="s">
+        <v>390</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>383</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>377</v>
+      </c>
+      <c r="X64" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>392</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>393</v>
+      </c>
+      <c r="J65" t="s">
+        <v>394</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>395</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>397</v>
+      </c>
+      <c r="J66" t="s">
+        <v>398</v>
+      </c>
+      <c r="K66" t="s">
+        <v>399</v>
+      </c>
+      <c r="L66" t="s">
+        <v>400</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>395</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>401</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>402</v>
+      </c>
+      <c r="J67" t="s">
+        <v>403</v>
+      </c>
+      <c r="K67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" t="s">
+        <v>408</v>
+      </c>
+      <c r="K68" t="s">
+        <v>409</v>
+      </c>
+      <c r="L68" t="s">
+        <v>410</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>411</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>412</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>413</v>
+      </c>
+      <c r="J69" t="s">
+        <v>414</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>415</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>416</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>417</v>
+      </c>
+      <c r="J70" t="s">
+        <v>418</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>419</v>
+      </c>
+      <c r="O70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>420</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71" t="s">
+        <v>422</v>
+      </c>
+      <c r="K71" t="s">
+        <v>423</v>
+      </c>
+      <c r="L71" t="s">
+        <v>424</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>425</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>426</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>427</v>
+      </c>
+      <c r="J72" t="s">
+        <v>428</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>425</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>430</v>
+      </c>
+      <c r="J73" t="s">
+        <v>431</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>432</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>433</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>434</v>
+      </c>
+      <c r="J74" t="s">
+        <v>435</v>
+      </c>
+      <c r="K74" t="s">
+        <v>409</v>
+      </c>
+      <c r="L74" t="s">
+        <v>436</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>437</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>439</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>440</v>
+      </c>
+      <c r="J75" t="s">
+        <v>441</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>437</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>442</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>443</v>
+      </c>
+      <c r="J76" t="s">
+        <v>444</v>
+      </c>
+      <c r="K76" t="s">
+        <v>445</v>
+      </c>
+      <c r="L76" t="s">
+        <v>446</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>411</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>448</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>449</v>
+      </c>
+      <c r="J77" t="s">
+        <v>450</v>
+      </c>
+      <c r="K77" t="s">
+        <v>451</v>
+      </c>
+      <c r="L77" t="s">
+        <v>452</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>453</v>
+      </c>
+      <c r="O77" t="s">
+        <v>230</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>455</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>456</v>
+      </c>
+      <c r="J78" t="s">
+        <v>457</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>458</v>
+      </c>
+      <c r="O78" t="s">
+        <v>230</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>459</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>460</v>
+      </c>
+      <c r="J79" t="s">
+        <v>461</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>458</v>
+      </c>
+      <c r="O79" t="s">
+        <v>230</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>462</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>463</v>
+      </c>
+      <c r="J80" t="s">
+        <v>464</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>465</v>
+      </c>
+      <c r="O80" t="s">
+        <v>230</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>466</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>467</v>
+      </c>
+      <c r="J81" t="s">
+        <v>468</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>469</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>470</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>471</v>
+      </c>
+      <c r="J82" t="s">
+        <v>472</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>473</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>474</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>475</v>
+      </c>
+      <c r="J83" t="s">
+        <v>476</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>477</v>
+      </c>
+      <c r="O83" t="s">
+        <v>66</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>478</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>479</v>
+      </c>
+      <c r="J84" t="s">
+        <v>480</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>111</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>477</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>481</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>482</v>
+      </c>
+      <c r="J85" t="s">
+        <v>483</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>484</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>485</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>486</v>
+      </c>
+      <c r="J86" t="s">
+        <v>487</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>488</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>489</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>490</v>
+      </c>
+      <c r="J87" t="s">
+        <v>491</v>
+      </c>
+      <c r="K87" t="s">
+        <v>492</v>
+      </c>
+      <c r="L87" t="s">
+        <v>493</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>494</v>
+      </c>
+      <c r="O87" t="s">
+        <v>230</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>496</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>497</v>
+      </c>
+      <c r="J88" t="s">
+        <v>498</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>494</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>499</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>500</v>
+      </c>
+      <c r="J89" t="s">
+        <v>501</v>
+      </c>
+      <c r="K89" t="s">
+        <v>502</v>
+      </c>
+      <c r="L89" t="s">
+        <v>503</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>504</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>506</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>507</v>
+      </c>
+      <c r="J90" t="s">
+        <v>508</v>
+      </c>
+      <c r="K90" t="s">
+        <v>509</v>
+      </c>
+      <c r="L90" t="s">
+        <v>510</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>504</v>
+      </c>
+      <c r="O90" t="s">
+        <v>66</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>512</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>513</v>
+      </c>
+      <c r="J91" t="s">
+        <v>514</v>
+      </c>
+      <c r="K91" t="s">
+        <v>515</v>
+      </c>
+      <c r="L91" t="s">
+        <v>516</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>504</v>
+      </c>
+      <c r="O91" t="s">
+        <v>230</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>518</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>519</v>
+      </c>
+      <c r="J92" t="s">
+        <v>520</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>521</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>522</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>523</v>
+      </c>
+      <c r="J93" t="s">
+        <v>524</v>
+      </c>
+      <c r="K93" t="s">
+        <v>525</v>
+      </c>
+      <c r="L93" t="s">
+        <v>526</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>527</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>528</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>529</v>
+      </c>
+      <c r="J94" t="s">
+        <v>530</v>
+      </c>
+      <c r="K94" t="s">
+        <v>531</v>
+      </c>
+      <c r="L94" t="s">
+        <v>532</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>533</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>535</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>536</v>
+      </c>
+      <c r="J95" t="s">
+        <v>537</v>
+      </c>
+      <c r="K95" t="s">
+        <v>538</v>
+      </c>
+      <c r="L95" t="s">
+        <v>539</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>540</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>541</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>542</v>
+      </c>
+      <c r="J96" t="s">
+        <v>543</v>
+      </c>
+      <c r="K96" t="s">
+        <v>544</v>
+      </c>
+      <c r="L96" t="s">
+        <v>545</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>540</v>
+      </c>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>547</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>548</v>
+      </c>
+      <c r="J97" t="s">
+        <v>549</v>
+      </c>
+      <c r="K97" t="s">
+        <v>550</v>
+      </c>
+      <c r="L97" t="s">
+        <v>551</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>552</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>553</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>554</v>
+      </c>
+      <c r="J98" t="s">
+        <v>555</v>
+      </c>
+      <c r="K98" t="s">
+        <v>556</v>
+      </c>
+      <c r="L98" t="s">
+        <v>557</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>558</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>559</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>560</v>
+      </c>
+      <c r="J99" t="s">
+        <v>561</v>
+      </c>
+      <c r="K99" t="s">
+        <v>562</v>
+      </c>
+      <c r="L99" t="s">
+        <v>563</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>564</v>
+      </c>
+      <c r="O99" t="s">
+        <v>66</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>565</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>566</v>
+      </c>
+      <c r="J100" t="s">
+        <v>567</v>
+      </c>
+      <c r="K100" t="s">
+        <v>568</v>
+      </c>
+      <c r="L100" t="s">
+        <v>569</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>564</v>
+      </c>
+      <c r="O100" t="s">
+        <v>230</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>571</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>572</v>
+      </c>
+      <c r="J101" t="s">
+        <v>573</v>
+      </c>
+      <c r="K101" t="s">
+        <v>574</v>
+      </c>
+      <c r="L101" t="s">
+        <v>575</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>564</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>576</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>577</v>
+      </c>
+      <c r="J102" t="s">
+        <v>573</v>
+      </c>
+      <c r="K102" t="s">
+        <v>578</v>
+      </c>
+      <c r="L102" t="s">
+        <v>579</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>564</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>580</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>581</v>
+      </c>
+      <c r="J103" t="s">
+        <v>573</v>
+      </c>
+      <c r="K103" t="s">
+        <v>582</v>
+      </c>
+      <c r="L103" t="s">
+        <v>583</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>564</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>584</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>585</v>
+      </c>
+      <c r="J104" t="s">
+        <v>586</v>
+      </c>
+      <c r="K104" t="s">
+        <v>587</v>
+      </c>
+      <c r="L104" t="s">
+        <v>588</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>589</v>
+      </c>
+      <c r="O104" t="s">
+        <v>230</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>590</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>591</v>
+      </c>
+      <c r="J105" t="s">
+        <v>592</v>
+      </c>
+      <c r="K105" t="s">
+        <v>593</v>
+      </c>
+      <c r="L105" t="s">
+        <v>594</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>589</v>
+      </c>
+      <c r="O105" t="s">
+        <v>230</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>596</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>597</v>
+      </c>
+      <c r="J106" t="s">
+        <v>598</v>
+      </c>
+      <c r="K106" t="s">
+        <v>599</v>
+      </c>
+      <c r="L106" t="s">
+        <v>600</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>589</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>602</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>603</v>
+      </c>
+      <c r="J107" t="s">
+        <v>604</v>
+      </c>
+      <c r="K107" t="s">
+        <v>605</v>
+      </c>
+      <c r="L107" t="s">
+        <v>606</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>607</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>608</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>609</v>
+      </c>
+      <c r="J108" t="s">
+        <v>610</v>
+      </c>
+      <c r="K108" t="s">
+        <v>611</v>
+      </c>
+      <c r="L108" t="s">
+        <v>612</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>613</v>
+      </c>
+      <c r="O108" t="s">
+        <v>230</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>614</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>615</v>
+      </c>
+      <c r="J109" t="s">
+        <v>616</v>
+      </c>
+      <c r="K109" t="s">
+        <v>617</v>
+      </c>
+      <c r="L109" t="s">
+        <v>618</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>619</v>
+      </c>
+      <c r="O109" t="s">
+        <v>66</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>2</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>621</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>622</v>
+      </c>
+      <c r="J110" t="s">
+        <v>623</v>
+      </c>
+      <c r="K110" t="s">
+        <v>624</v>
+      </c>
+      <c r="L110" t="s">
+        <v>625</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>626</v>
+      </c>
+      <c r="O110" t="s">
+        <v>230</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>628</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>629</v>
+      </c>
+      <c r="J111" t="s">
+        <v>630</v>
+      </c>
+      <c r="K111" t="s">
+        <v>631</v>
+      </c>
+      <c r="L111" t="s">
+        <v>632</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>626</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>634</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>635</v>
+      </c>
+      <c r="J112" t="s">
+        <v>636</v>
+      </c>
+      <c r="K112" t="s">
+        <v>637</v>
+      </c>
+      <c r="L112" t="s">
+        <v>638</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>639</v>
+      </c>
+      <c r="O112" t="s">
+        <v>66</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>640</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>641</v>
+      </c>
+      <c r="J113" t="s">
+        <v>642</v>
+      </c>
+      <c r="K113" t="s">
+        <v>643</v>
+      </c>
+      <c r="L113" t="s">
+        <v>644</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>645</v>
+      </c>
+      <c r="O113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>646</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>647</v>
+      </c>
+      <c r="J114" t="s">
+        <v>648</v>
+      </c>
+      <c r="K114" t="s">
+        <v>649</v>
+      </c>
+      <c r="L114" t="s">
+        <v>650</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>651</v>
+      </c>
+      <c r="O114" t="s">
+        <v>230</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>653</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>654</v>
+      </c>
+      <c r="J115" t="s">
+        <v>655</v>
+      </c>
+      <c r="K115" t="s">
+        <v>656</v>
+      </c>
+      <c r="L115" t="s">
+        <v>657</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>651</v>
+      </c>
+      <c r="O115" t="s">
+        <v>255</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>658</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>659</v>
+      </c>
+      <c r="J116" t="s">
+        <v>660</v>
+      </c>
+      <c r="K116" t="s">
+        <v>661</v>
+      </c>
+      <c r="L116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>663</v>
+      </c>
+      <c r="O116" t="s">
+        <v>255</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>664</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>665</v>
+      </c>
+      <c r="J117" t="s">
+        <v>666</v>
+      </c>
+      <c r="K117" t="s">
+        <v>667</v>
+      </c>
+      <c r="L117" t="s">
+        <v>668</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>663</v>
+      </c>
+      <c r="O117" t="s">
+        <v>230</v>
+      </c>
+      <c r="P117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>59242</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>670</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>671</v>
+      </c>
+      <c r="J118" t="s">
+        <v>672</v>
+      </c>
+      <c r="K118" t="s">
+        <v>673</v>
+      </c>
+      <c r="L118" t="s">
+        <v>674</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>675</v>
+      </c>
+      <c r="O118" t="s">
+        <v>66</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
